--- a/results/CIFAR10/simplecnn/noise_0.05/Adam/runs_and_aggregate.xlsx
+++ b/results/CIFAR10/simplecnn/noise_0.05/Adam/runs_and_aggregate.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="aggregate" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="run_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="run_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="run_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="run_4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="run_5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="aggregate" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -487,7 +487,7 @@
         <v>46.08</v>
       </c>
       <c r="F2" t="n">
-        <v>35.79240369796753</v>
+        <v>30.05449223518372</v>
       </c>
     </row>
     <row r="3">
@@ -507,7 +507,7 @@
         <v>52.72</v>
       </c>
       <c r="F3" t="n">
-        <v>35.71011137962341</v>
+        <v>29.76475262641907</v>
       </c>
     </row>
     <row r="4">
@@ -527,7 +527,7 @@
         <v>56.4</v>
       </c>
       <c r="F4" t="n">
-        <v>35.90505576133728</v>
+        <v>29.71687602996826</v>
       </c>
     </row>
     <row r="5">
@@ -547,7 +547,7 @@
         <v>61.36</v>
       </c>
       <c r="F5" t="n">
-        <v>35.46923470497131</v>
+        <v>29.84806704521179</v>
       </c>
     </row>
     <row r="6">
@@ -567,7 +567,7 @@
         <v>62.69</v>
       </c>
       <c r="F6" t="n">
-        <v>35.70210719108582</v>
+        <v>29.9085111618042</v>
       </c>
     </row>
     <row r="7">
@@ -587,7 +587,7 @@
         <v>65.41</v>
       </c>
       <c r="F7" t="n">
-        <v>35.62179970741272</v>
+        <v>29.66334533691406</v>
       </c>
     </row>
     <row r="8">
@@ -607,7 +607,7 @@
         <v>67.48</v>
       </c>
       <c r="F8" t="n">
-        <v>35.99395632743835</v>
+        <v>29.74172282218933</v>
       </c>
     </row>
     <row r="9">
@@ -627,7 +627,7 @@
         <v>68.51000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>35.67858004570007</v>
+        <v>29.65336775779724</v>
       </c>
     </row>
     <row r="10">
@@ -647,7 +647,7 @@
         <v>69.45999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>35.47860407829285</v>
+        <v>29.65936231613159</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +667,7 @@
         <v>70.02</v>
       </c>
       <c r="F11" t="n">
-        <v>35.72877907752991</v>
+        <v>29.97253847122192</v>
       </c>
     </row>
     <row r="12">
@@ -687,7 +687,7 @@
         <v>69.68000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>35.42759466171265</v>
+        <v>29.7814199924469</v>
       </c>
     </row>
     <row r="13">
@@ -707,7 +707,7 @@
         <v>70.87</v>
       </c>
       <c r="F13" t="n">
-        <v>35.74215316772461</v>
+        <v>29.84281253814697</v>
       </c>
     </row>
     <row r="14">
@@ -727,7 +727,7 @@
         <v>71.84999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>35.63669943809509</v>
+        <v>29.71160292625427</v>
       </c>
     </row>
     <row r="15">
@@ -747,7 +747,7 @@
         <v>70.91</v>
       </c>
       <c r="F15" t="n">
-        <v>35.63658857345581</v>
+        <v>29.49990725517273</v>
       </c>
     </row>
     <row r="16">
@@ -767,7 +767,7 @@
         <v>72.41</v>
       </c>
       <c r="F16" t="n">
-        <v>36.13192987442017</v>
+        <v>29.8912980556488</v>
       </c>
     </row>
     <row r="17">
@@ -787,7 +787,7 @@
         <v>72.88</v>
       </c>
       <c r="F17" t="n">
-        <v>35.80471134185791</v>
+        <v>29.78654170036316</v>
       </c>
     </row>
     <row r="18">
@@ -807,7 +807,7 @@
         <v>73.13</v>
       </c>
       <c r="F18" t="n">
-        <v>35.88025307655334</v>
+        <v>30.1444206237793</v>
       </c>
     </row>
     <row r="19">
@@ -827,7 +827,7 @@
         <v>73.31999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>35.79477286338806</v>
+        <v>30.06649613380432</v>
       </c>
     </row>
     <row r="20">
@@ -847,7 +847,7 @@
         <v>73.48999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>35.71593832969666</v>
+        <v>29.84225177764893</v>
       </c>
     </row>
     <row r="21">
@@ -867,7 +867,7 @@
         <v>73.95999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>35.86851215362549</v>
+        <v>30.07104659080505</v>
       </c>
     </row>
   </sheetData>
@@ -938,7 +938,7 @@
         <v>48.27</v>
       </c>
       <c r="F2" t="n">
-        <v>35.70410490036011</v>
+        <v>30.10622096061707</v>
       </c>
     </row>
     <row r="3">
@@ -958,7 +958,7 @@
         <v>54.1</v>
       </c>
       <c r="F3" t="n">
-        <v>35.81722331047058</v>
+        <v>29.69258618354797</v>
       </c>
     </row>
     <row r="4">
@@ -978,7 +978,7 @@
         <v>58.44</v>
       </c>
       <c r="F4" t="n">
-        <v>35.6644561290741</v>
+        <v>29.83807063102722</v>
       </c>
     </row>
     <row r="5">
@@ -998,7 +998,7 @@
         <v>60.85</v>
       </c>
       <c r="F5" t="n">
-        <v>35.86023879051208</v>
+        <v>29.78295588493347</v>
       </c>
     </row>
     <row r="6">
@@ -1018,7 +1018,7 @@
         <v>63.2</v>
       </c>
       <c r="F6" t="n">
-        <v>35.79387164115906</v>
+        <v>29.74206638336182</v>
       </c>
     </row>
     <row r="7">
@@ -1038,7 +1038,7 @@
         <v>65.43000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>35.56306266784668</v>
+        <v>29.75846648216248</v>
       </c>
     </row>
     <row r="8">
@@ -1058,7 +1058,7 @@
         <v>66.09999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>35.5312135219574</v>
+        <v>29.66606664657593</v>
       </c>
     </row>
     <row r="9">
@@ -1078,7 +1078,7 @@
         <v>67.31</v>
       </c>
       <c r="F9" t="n">
-        <v>35.59427952766418</v>
+        <v>29.88372159004211</v>
       </c>
     </row>
     <row r="10">
@@ -1098,7 +1098,7 @@
         <v>67.59999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>35.63569688796997</v>
+        <v>29.75860023498535</v>
       </c>
     </row>
     <row r="11">
@@ -1118,7 +1118,7 @@
         <v>69.03</v>
       </c>
       <c r="F11" t="n">
-        <v>35.77349996566772</v>
+        <v>30.08910799026489</v>
       </c>
     </row>
     <row r="12">
@@ -1138,7 +1138,7 @@
         <v>69.58</v>
       </c>
       <c r="F12" t="n">
-        <v>35.65947985649109</v>
+        <v>29.75185489654541</v>
       </c>
     </row>
     <row r="13">
@@ -1158,7 +1158,7 @@
         <v>69.95</v>
       </c>
       <c r="F13" t="n">
-        <v>35.68214750289917</v>
+        <v>29.73409652709961</v>
       </c>
     </row>
     <row r="14">
@@ -1178,7 +1178,7 @@
         <v>71.45</v>
       </c>
       <c r="F14" t="n">
-        <v>35.49218893051147</v>
+        <v>29.85681247711182</v>
       </c>
     </row>
     <row r="15">
@@ -1198,7 +1198,7 @@
         <v>71.88</v>
       </c>
       <c r="F15" t="n">
-        <v>35.55619406700134</v>
+        <v>29.80641913414001</v>
       </c>
     </row>
     <row r="16">
@@ -1218,7 +1218,7 @@
         <v>72.95999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>35.52665591239929</v>
+        <v>29.91411375999451</v>
       </c>
     </row>
     <row r="17">
@@ -1238,7 +1238,7 @@
         <v>72.63</v>
       </c>
       <c r="F17" t="n">
-        <v>35.84783673286438</v>
+        <v>29.73997092247009</v>
       </c>
     </row>
     <row r="18">
@@ -1258,7 +1258,7 @@
         <v>72.14</v>
       </c>
       <c r="F18" t="n">
-        <v>35.69274997711182</v>
+        <v>29.82440233230591</v>
       </c>
     </row>
     <row r="19">
@@ -1278,7 +1278,7 @@
         <v>73.65000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>35.69068121910095</v>
+        <v>29.81028389930725</v>
       </c>
     </row>
     <row r="20">
@@ -1298,7 +1298,7 @@
         <v>72.51000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>35.82929849624634</v>
+        <v>29.9933865070343</v>
       </c>
     </row>
     <row r="21">
@@ -1318,7 +1318,7 @@
         <v>72.45</v>
       </c>
       <c r="F21" t="n">
-        <v>35.63661122322083</v>
+        <v>30.06592917442322</v>
       </c>
     </row>
   </sheetData>
@@ -1389,7 +1389,7 @@
         <v>47.39</v>
       </c>
       <c r="F2" t="n">
-        <v>35.58373928070068</v>
+        <v>30.1581449508667</v>
       </c>
     </row>
     <row r="3">
@@ -1409,7 +1409,7 @@
         <v>53.6</v>
       </c>
       <c r="F3" t="n">
-        <v>35.75972485542297</v>
+        <v>29.89680957794189</v>
       </c>
     </row>
     <row r="4">
@@ -1429,7 +1429,7 @@
         <v>58.29</v>
       </c>
       <c r="F4" t="n">
-        <v>35.9149808883667</v>
+        <v>30.03415036201477</v>
       </c>
     </row>
     <row r="5">
@@ -1449,7 +1449,7 @@
         <v>60.59</v>
       </c>
       <c r="F5" t="n">
-        <v>36.14360618591309</v>
+        <v>30.16022562980652</v>
       </c>
     </row>
     <row r="6">
@@ -1469,7 +1469,7 @@
         <v>65.06</v>
       </c>
       <c r="F6" t="n">
-        <v>35.9924328327179</v>
+        <v>29.90883898735046</v>
       </c>
     </row>
     <row r="7">
@@ -1489,7 +1489,7 @@
         <v>64.86</v>
       </c>
       <c r="F7" t="n">
-        <v>35.88410019874573</v>
+        <v>29.80102467536926</v>
       </c>
     </row>
     <row r="8">
@@ -1509,7 +1509,7 @@
         <v>68</v>
       </c>
       <c r="F8" t="n">
-        <v>35.85783267021179</v>
+        <v>29.73245596885681</v>
       </c>
     </row>
     <row r="9">
@@ -1529,7 +1529,7 @@
         <v>68.06</v>
       </c>
       <c r="F9" t="n">
-        <v>35.93324136734009</v>
+        <v>29.81217193603516</v>
       </c>
     </row>
     <row r="10">
@@ -1549,7 +1549,7 @@
         <v>69.47</v>
       </c>
       <c r="F10" t="n">
-        <v>35.98068761825562</v>
+        <v>29.87986874580384</v>
       </c>
     </row>
     <row r="11">
@@ -1569,7 +1569,7 @@
         <v>70.45</v>
       </c>
       <c r="F11" t="n">
-        <v>35.79395842552185</v>
+        <v>30.12013053894043</v>
       </c>
     </row>
     <row r="12">
@@ -1589,7 +1589,7 @@
         <v>70.53</v>
       </c>
       <c r="F12" t="n">
-        <v>35.76389312744141</v>
+        <v>29.77164149284363</v>
       </c>
     </row>
     <row r="13">
@@ -1609,7 +1609,7 @@
         <v>70.31999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>35.67850279808044</v>
+        <v>29.75386810302734</v>
       </c>
     </row>
     <row r="14">
@@ -1629,7 +1629,7 @@
         <v>71.94</v>
       </c>
       <c r="F14" t="n">
-        <v>35.77424430847168</v>
+        <v>29.95186042785645</v>
       </c>
     </row>
     <row r="15">
@@ -1649,7 +1649,7 @@
         <v>71.81</v>
       </c>
       <c r="F15" t="n">
-        <v>35.93430590629578</v>
+        <v>29.73042511940002</v>
       </c>
     </row>
     <row r="16">
@@ -1669,7 +1669,7 @@
         <v>72.66</v>
       </c>
       <c r="F16" t="n">
-        <v>35.43285083770752</v>
+        <v>29.83797287940979</v>
       </c>
     </row>
     <row r="17">
@@ -1689,7 +1689,7 @@
         <v>73.39</v>
       </c>
       <c r="F17" t="n">
-        <v>35.57079863548279</v>
+        <v>29.67706799507141</v>
       </c>
     </row>
     <row r="18">
@@ -1709,7 +1709,7 @@
         <v>73.98999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>35.58169555664062</v>
+        <v>29.78482794761658</v>
       </c>
     </row>
     <row r="19">
@@ -1729,7 +1729,7 @@
         <v>72.98999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>35.50152587890625</v>
+        <v>29.81416773796081</v>
       </c>
     </row>
     <row r="20">
@@ -1749,7 +1749,7 @@
         <v>73.61</v>
       </c>
       <c r="F20" t="n">
-        <v>35.66299510002136</v>
+        <v>29.81194734573364</v>
       </c>
     </row>
     <row r="21">
@@ -1769,7 +1769,7 @@
         <v>74.7</v>
       </c>
       <c r="F21" t="n">
-        <v>35.59851932525635</v>
+        <v>30.17433309555054</v>
       </c>
     </row>
   </sheetData>
@@ -1840,7 +1840,7 @@
         <v>47.41</v>
       </c>
       <c r="F2" t="n">
-        <v>35.62586688995361</v>
+        <v>30.16321134567261</v>
       </c>
     </row>
     <row r="3">
@@ -1860,7 +1860,7 @@
         <v>54.05</v>
       </c>
       <c r="F3" t="n">
-        <v>35.494713306427</v>
+        <v>29.87343120574951</v>
       </c>
     </row>
     <row r="4">
@@ -1880,7 +1880,7 @@
         <v>58.21</v>
       </c>
       <c r="F4" t="n">
-        <v>35.63345551490784</v>
+        <v>29.69489192962646</v>
       </c>
     </row>
     <row r="5">
@@ -1900,7 +1900,7 @@
         <v>62.04</v>
       </c>
       <c r="F5" t="n">
-        <v>35.61499094963074</v>
+        <v>29.66487193107605</v>
       </c>
     </row>
     <row r="6">
@@ -1920,7 +1920,7 @@
         <v>62.45</v>
       </c>
       <c r="F6" t="n">
-        <v>35.50286555290222</v>
+        <v>29.8112576007843</v>
       </c>
     </row>
     <row r="7">
@@ -1940,7 +1940,7 @@
         <v>64.95999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>35.7238142490387</v>
+        <v>29.70791459083557</v>
       </c>
     </row>
     <row r="8">
@@ -1960,7 +1960,7 @@
         <v>67.06</v>
       </c>
       <c r="F8" t="n">
-        <v>35.65740275382996</v>
+        <v>29.74257850646973</v>
       </c>
     </row>
     <row r="9">
@@ -1980,7 +1980,7 @@
         <v>67.62</v>
       </c>
       <c r="F9" t="n">
-        <v>35.8183958530426</v>
+        <v>29.68389797210693</v>
       </c>
     </row>
     <row r="10">
@@ -2000,7 +2000,7 @@
         <v>68.3</v>
       </c>
       <c r="F10" t="n">
-        <v>35.52382016181946</v>
+        <v>29.81452178955078</v>
       </c>
     </row>
     <row r="11">
@@ -2020,7 +2020,7 @@
         <v>68.78</v>
       </c>
       <c r="F11" t="n">
-        <v>35.60875463485718</v>
+        <v>29.91542148590088</v>
       </c>
     </row>
     <row r="12">
@@ -2040,7 +2040,7 @@
         <v>69.56</v>
       </c>
       <c r="F12" t="n">
-        <v>35.62207126617432</v>
+        <v>29.95841312408448</v>
       </c>
     </row>
     <row r="13">
@@ -2060,7 +2060,7 @@
         <v>69.87</v>
       </c>
       <c r="F13" t="n">
-        <v>35.62460350990295</v>
+        <v>29.88687086105347</v>
       </c>
     </row>
     <row r="14">
@@ -2080,7 +2080,7 @@
         <v>71</v>
       </c>
       <c r="F14" t="n">
-        <v>35.56360912322998</v>
+        <v>29.92565393447876</v>
       </c>
     </row>
     <row r="15">
@@ -2100,7 +2100,7 @@
         <v>72.11</v>
       </c>
       <c r="F15" t="n">
-        <v>35.61203765869141</v>
+        <v>29.71771788597107</v>
       </c>
     </row>
     <row r="16">
@@ -2120,7 +2120,7 @@
         <v>72.5</v>
       </c>
       <c r="F16" t="n">
-        <v>35.69051051139832</v>
+        <v>29.90666437149048</v>
       </c>
     </row>
     <row r="17">
@@ -2140,7 +2140,7 @@
         <v>72.09999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>35.6527407169342</v>
+        <v>30.24825930595398</v>
       </c>
     </row>
     <row r="18">
@@ -2160,7 +2160,7 @@
         <v>73.29000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>35.54192233085632</v>
+        <v>30.6692214012146</v>
       </c>
     </row>
     <row r="19">
@@ -2180,7 +2180,7 @@
         <v>73.67</v>
       </c>
       <c r="F19" t="n">
-        <v>35.91432285308838</v>
+        <v>30.40072727203369</v>
       </c>
     </row>
     <row r="20">
@@ -2200,7 +2200,7 @@
         <v>73.34999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>35.55973267555237</v>
+        <v>30.29193639755249</v>
       </c>
     </row>
     <row r="21">
@@ -2220,7 +2220,7 @@
         <v>73.61</v>
       </c>
       <c r="F21" t="n">
-        <v>35.47926712036133</v>
+        <v>30.73220729827881</v>
       </c>
     </row>
   </sheetData>
@@ -2291,7 +2291,7 @@
         <v>48.92</v>
       </c>
       <c r="F2" t="n">
-        <v>35.15699625015259</v>
+        <v>30.66563391685486</v>
       </c>
     </row>
     <row r="3">
@@ -2311,7 +2311,7 @@
         <v>53.54</v>
       </c>
       <c r="F3" t="n">
-        <v>34.808589220047</v>
+        <v>30.25231552124023</v>
       </c>
     </row>
     <row r="4">
@@ -2331,7 +2331,7 @@
         <v>59.84</v>
       </c>
       <c r="F4" t="n">
-        <v>34.76920652389526</v>
+        <v>30.38260698318481</v>
       </c>
     </row>
     <row r="5">
@@ -2351,7 +2351,7 @@
         <v>62.27</v>
       </c>
       <c r="F5" t="n">
-        <v>34.7215576171875</v>
+        <v>30.4077033996582</v>
       </c>
     </row>
     <row r="6">
@@ -2371,7 +2371,7 @@
         <v>64.13</v>
       </c>
       <c r="F6" t="n">
-        <v>34.70649528503418</v>
+        <v>30.54141926765442</v>
       </c>
     </row>
     <row r="7">
@@ -2391,7 +2391,7 @@
         <v>65.93000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>34.69621634483337</v>
+        <v>30.42685651779175</v>
       </c>
     </row>
     <row r="8">
@@ -2411,7 +2411,7 @@
         <v>66.92</v>
       </c>
       <c r="F8" t="n">
-        <v>34.55106568336487</v>
+        <v>30.5037100315094</v>
       </c>
     </row>
     <row r="9">
@@ -2431,7 +2431,7 @@
         <v>67.31999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>34.93785786628723</v>
+        <v>30.2572112083435</v>
       </c>
     </row>
     <row r="10">
@@ -2451,7 +2451,7 @@
         <v>68.2</v>
       </c>
       <c r="F10" t="n">
-        <v>34.67340874671936</v>
+        <v>30.34380197525024</v>
       </c>
     </row>
     <row r="11">
@@ -2471,7 +2471,7 @@
         <v>67.90000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>34.91182017326355</v>
+        <v>30.76593852043152</v>
       </c>
     </row>
     <row r="12">
@@ -2491,7 +2491,7 @@
         <v>69.88</v>
       </c>
       <c r="F12" t="n">
-        <v>34.8050000667572</v>
+        <v>29.51127576828003</v>
       </c>
     </row>
     <row r="13">
@@ -2511,7 +2511,7 @@
         <v>70.76000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>34.5634434223175</v>
+        <v>29.46178722381592</v>
       </c>
     </row>
     <row r="14">
@@ -2531,7 +2531,7 @@
         <v>71.01000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>34.60888075828552</v>
+        <v>29.51126170158386</v>
       </c>
     </row>
     <row r="15">
@@ -2551,7 +2551,7 @@
         <v>71.76000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>34.44787764549255</v>
+        <v>30.14964056015014</v>
       </c>
     </row>
     <row r="16">
@@ -2571,7 +2571,7 @@
         <v>72.04000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>34.64047861099243</v>
+        <v>31.37946653366089</v>
       </c>
     </row>
     <row r="17">
@@ -2591,7 +2591,7 @@
         <v>72.11</v>
       </c>
       <c r="F17" t="n">
-        <v>34.78239440917969</v>
+        <v>31.21654462814331</v>
       </c>
     </row>
     <row r="18">
@@ -2611,7 +2611,7 @@
         <v>72.65000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>34.53206300735474</v>
+        <v>30.18591141700745</v>
       </c>
     </row>
     <row r="19">
@@ -2631,7 +2631,7 @@
         <v>73.11</v>
       </c>
       <c r="F19" t="n">
-        <v>34.86863231658936</v>
+        <v>30.03041005134583</v>
       </c>
     </row>
     <row r="20">
@@ -2651,7 +2651,7 @@
         <v>73.78</v>
       </c>
       <c r="F20" t="n">
-        <v>34.56281733512878</v>
+        <v>30.12016773223877</v>
       </c>
     </row>
     <row r="21">
@@ -2671,7 +2671,7 @@
         <v>72.98999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>34.76904368400574</v>
+        <v>30.54921078681945</v>
       </c>
     </row>
   </sheetData>
